--- a/models/calculation engines/cbix2/outputs/default/freight_calcs_to_qingdao_first_leg/frieght_calculations-actual_port-first_leg.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/freight_calcs_to_qingdao_first_leg/frieght_calculations-actual_port-first_leg.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94064.31505879021</v>
+        <v>94064.31505879022</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         <v>37945.54469471597</v>
       </c>
       <c r="F3" t="n">
-        <v>53606.97308400624</v>
+        <v>53606.97308400625</v>
       </c>
     </row>
     <row r="4">
@@ -1108,7 +1108,7 @@
         <v>190.6592307692308</v>
       </c>
       <c r="E28" t="n">
-        <v>20687.1794871795</v>
+        <v>20687.17948717949</v>
       </c>
       <c r="F28" t="n">
         <v>31407.25641025642</v>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>329.22</v>
+        <v>329.2199999999999</v>
       </c>
       <c r="E32" t="n">
         <v>84714</v>
@@ -1524,7 +1524,7 @@
         <v>190.6592307692308</v>
       </c>
       <c r="E46" t="n">
-        <v>20687.1794871795</v>
+        <v>20687.17948717949</v>
       </c>
       <c r="F46" t="n">
         <v>31407.25641025642</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>76095.947063689</v>
+        <v>76095.94706368899</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>57765.9888004716</v>
+        <v>57765.98880047161</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         <v>196.3197082228117</v>
       </c>
       <c r="E57" t="n">
-        <v>23302.79988211024</v>
+        <v>23302.79988211025</v>
       </c>
       <c r="F57" t="n">
-        <v>34771.77158856471</v>
+        <v>34771.77158856472</v>
       </c>
     </row>
     <row r="58">
@@ -1820,7 +1820,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>57765.9888004716</v>
+        <v>57765.98880047161</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1836,10 +1836,10 @@
         <v>196.3197082228117</v>
       </c>
       <c r="E59" t="n">
-        <v>23302.79988211024</v>
+        <v>23302.79988211025</v>
       </c>
       <c r="F59" t="n">
-        <v>34771.77158856471</v>
+        <v>34771.77158856472</v>
       </c>
     </row>
     <row r="60">
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>189.0410658016682</v>
+        <v>189.0410658016681</v>
       </c>
       <c r="E61" t="n">
         <v>19939.45010812479</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>50031.2695434647</v>
+        <v>50031.26954346471</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1911,12 +1911,12 @@
         <v>20182.61413383366</v>
       </c>
       <c r="F62" t="n">
-        <v>30758.22576610383</v>
+        <v>30758.22576610384</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>50031.2695434647</v>
+        <v>50031.26954346471</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1935,12 +1935,12 @@
         <v>20182.61413383366</v>
       </c>
       <c r="F63" t="n">
-        <v>30758.22576610383</v>
+        <v>30758.22576610384</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>81343.94341290891</v>
+        <v>81343.94341290889</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1953,18 +1953,18 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>216.9032625994695</v>
+        <v>216.9032625994694</v>
       </c>
       <c r="E64" t="n">
         <v>32814.14677276745</v>
       </c>
       <c r="F64" t="n">
-        <v>47006.37223695844</v>
+        <v>47006.37223695843</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>81343.94341290891</v>
+        <v>81343.94341290889</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>216.9032625994695</v>
+        <v>216.9032625994694</v>
       </c>
       <c r="E65" t="n">
         <v>32814.14677276745</v>
       </c>
       <c r="F65" t="n">
-        <v>47006.37223695844</v>
+        <v>47006.37223695843</v>
       </c>
     </row>
     <row r="66">
@@ -2036,7 +2036,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>74074.0740740741</v>
+        <v>74074.07407407409</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2049,13 +2049,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>210.5566666666667</v>
+        <v>210.5566666666666</v>
       </c>
       <c r="E68" t="n">
         <v>29881.48148148149</v>
       </c>
       <c r="F68" t="n">
-        <v>43234.03703703705</v>
+        <v>43234.03703703704</v>
       </c>
     </row>
     <row r="69">
@@ -2228,7 +2228,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>76095.947063689</v>
+        <v>76095.94706368899</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>81343.94341290891</v>
+        <v>81343.94341290889</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2313,13 +2313,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>216.9032625994695</v>
+        <v>216.9032625994694</v>
       </c>
       <c r="E79" t="n">
         <v>32814.14677276745</v>
       </c>
       <c r="F79" t="n">
-        <v>47006.37223695844</v>
+        <v>47006.37223695843</v>
       </c>
     </row>
     <row r="80">
@@ -2372,7 +2372,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>53050.3978779841</v>
+        <v>53050.39787798409</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>192.2029973474801</v>
       </c>
       <c r="E82" t="n">
-        <v>21400.53050397879</v>
+        <v>21400.53050397878</v>
       </c>
       <c r="F82" t="n">
         <v>32324.85145888595</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>53050.3978779841</v>
+        <v>53050.39787798409</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
         <v>192.2029973474801</v>
       </c>
       <c r="E83" t="n">
-        <v>21400.53050397879</v>
+        <v>21400.53050397878</v>
       </c>
       <c r="F83" t="n">
         <v>32324.85145888595</v>
@@ -2436,7 +2436,7 @@
         <v>188.302955465587</v>
       </c>
       <c r="E84" t="n">
-        <v>19598.38056680161</v>
+        <v>19598.38056680162</v>
       </c>
       <c r="F84" t="n">
         <v>30006.71659919028</v>
